--- a/Documents/ProjectSchedule.2.0.xlsx
+++ b/Documents/ProjectSchedule.2.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ITI\Embedded Systems\QA_Project\DDM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <definedName name="vertex42_id" hidden="1">"gantt-chart_L.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -1558,31 +1558,6 @@
 6-</t>
   </si>
   <si>
-    <t xml:space="preserve">1-Review SRS
-2-Review Test cases
-3-Review Project Plan
-4-Review CM
-5-Review RTM
-6-Review project schedule
-</t>
-  </si>
-  <si>
-    <t>1-Mina
-2-Mahmoud
-3-Osama
-4-Omnia
-5-Mahmoud
-6-Omnia/Mostafa</t>
-  </si>
-  <si>
-    <t>1-Yassmine
-2-Esraa/Dakak
-3-Mona
-4-Omnia/Mostafa
-5-
-6-Feloparter</t>
-  </si>
-  <si>
     <t>Omnia/ Mostafa</t>
   </si>
   <si>
@@ -1662,11 +1637,48 @@
 5-Feloparter/Ramdan
 6-</t>
   </si>
+  <si>
+    <t>1-Yassmine
+2-Esraa/Dakak
+3-Mona
+4-Omnia/Mostafa
+5-Development Team
+6-Development Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Review SRS
+2-Review Test cases
+3-Review Project Plan
+4-Review CM
+5-Review RTM
+6-Review project schedule
+7-CDD DIO
+8- CDD TIM0/TIM2
+9- CDD TIM1
+10-CDD LCD
+11-CDD UltraSonic
+12-CDD RTOS
+</t>
+  </si>
+  <si>
+    <t>1-Mina
+2-Mahmoud
+3-Osama
+4-Omnia
+5-Mahmoud
+6-Omnia/Mostafa
+7-Felo
+8-Esraa ElSaid
+9-Dakak
+10-Ramadan
+11-Yasmine
+12-Mostafa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ \(dddd\)"/>
     <numFmt numFmtId="165" formatCode="ddd\ m/dd/yy"/>
@@ -2945,9 +2957,6 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3021,9 +3030,6 @@
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="26" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="66" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -3051,16 +3057,22 @@
     <xf numFmtId="0" fontId="71" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="72" fillId="27" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="71" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="72" fillId="27" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="26" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="72" fillId="27" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="27" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3068,23 +3080,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="27" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="72" fillId="27" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="72" fillId="27" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="72" fillId="27" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="72" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="167" fontId="72" fillId="27" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="72" fillId="27" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="72" fillId="27" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3258,7 +3270,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0" val="2"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$H$4" horiz="1" max="100" min="1" page="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3281,7 +3293,7 @@
         <xdr:cNvPr id="8236" name="Text Box 44" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C200000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3345,7 +3357,7 @@
                   <a14:compatExt spid="_x0000_s8238"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E200000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3395,7 +3407,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3479,7 +3491,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3534,7 +3546,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3589,7 +3601,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3916,9 +3928,9 @@
   </sheetPr>
   <dimension ref="A1:BN43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V22" sqref="V22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3936,235 +3948,235 @@
     <col min="67" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="161" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="156" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="160" t="s">
-        <v>154</v>
-      </c>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="160"/>
-      <c r="T1" s="160"/>
-      <c r="U1" s="160"/>
-      <c r="V1" s="160"/>
-      <c r="W1" s="160"/>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="160"/>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="158"/>
-      <c r="AG1" s="158"/>
-      <c r="AH1" s="158"/>
-      <c r="AI1" s="158"/>
-      <c r="AJ1" s="158"/>
-      <c r="AK1" s="158"/>
-      <c r="AL1" s="158"/>
-      <c r="AM1" s="158"/>
-      <c r="AN1" s="158"/>
-      <c r="AO1" s="158"/>
-      <c r="AP1" s="158"/>
-      <c r="AQ1" s="158"/>
-      <c r="AR1" s="158"/>
-      <c r="AS1" s="158"/>
-      <c r="AT1" s="158"/>
-      <c r="AU1" s="158"/>
-      <c r="AV1" s="158"/>
-      <c r="AW1" s="158"/>
-      <c r="AX1" s="158"/>
-      <c r="AY1" s="158"/>
-      <c r="AZ1" s="158"/>
-      <c r="BA1" s="158"/>
-      <c r="BB1" s="158"/>
-      <c r="BC1" s="158"/>
-      <c r="BD1" s="158"/>
-      <c r="BE1" s="158"/>
-      <c r="BF1" s="158"/>
-      <c r="BG1" s="158"/>
-      <c r="BH1" s="158"/>
-      <c r="BI1" s="158"/>
-      <c r="BJ1" s="158"/>
-      <c r="BK1" s="158"/>
-      <c r="BL1" s="158"/>
-      <c r="BM1" s="158"/>
-      <c r="BN1" s="158"/>
-    </row>
-    <row r="2" spans="1:66" s="161" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="162" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
-      <c r="AC2" s="158"/>
-      <c r="AD2" s="158"/>
-      <c r="AE2" s="158"/>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="158"/>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="158"/>
-      <c r="AJ2" s="158"/>
-      <c r="AK2" s="158"/>
-      <c r="AL2" s="158"/>
-      <c r="AM2" s="158"/>
-      <c r="AN2" s="158"/>
-      <c r="AO2" s="158"/>
-      <c r="AP2" s="158"/>
-      <c r="AQ2" s="158"/>
-      <c r="AR2" s="158"/>
-      <c r="AS2" s="158"/>
-      <c r="AT2" s="158"/>
-      <c r="AU2" s="158"/>
-      <c r="AV2" s="158"/>
-      <c r="AW2" s="158"/>
-      <c r="AX2" s="158"/>
-      <c r="AY2" s="158"/>
-      <c r="AZ2" s="158"/>
-      <c r="BA2" s="158"/>
-      <c r="BB2" s="158"/>
-      <c r="BC2" s="158"/>
-      <c r="BD2" s="158"/>
-      <c r="BE2" s="158"/>
-      <c r="BF2" s="158"/>
-      <c r="BG2" s="158"/>
-      <c r="BH2" s="158"/>
-      <c r="BI2" s="158"/>
-      <c r="BJ2" s="158"/>
-      <c r="BK2" s="158"/>
-      <c r="BL2" s="158"/>
-      <c r="BM2" s="158"/>
-      <c r="BN2" s="158"/>
-    </row>
-    <row r="3" spans="1:66" s="155" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="166"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="168"/>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="154"/>
-      <c r="AE3" s="154"/>
-      <c r="AF3" s="154"/>
-      <c r="AG3" s="154"/>
-      <c r="AH3" s="154"/>
-      <c r="AI3" s="154"/>
-      <c r="AJ3" s="154"/>
-      <c r="AK3" s="154"/>
-      <c r="AL3" s="154"/>
-      <c r="AM3" s="154"/>
-      <c r="AN3" s="154"/>
-      <c r="AO3" s="154"/>
-      <c r="AP3" s="154"/>
-      <c r="AQ3" s="154"/>
-      <c r="AR3" s="154"/>
-      <c r="AS3" s="154"/>
-      <c r="AT3" s="154"/>
-      <c r="AU3" s="154"/>
-      <c r="AV3" s="154"/>
-      <c r="AW3" s="154"/>
-      <c r="AX3" s="154"/>
-      <c r="AY3" s="154"/>
-      <c r="AZ3" s="154"/>
-      <c r="BA3" s="154"/>
-      <c r="BB3" s="154"/>
-      <c r="BC3" s="154"/>
-      <c r="BD3" s="154"/>
-      <c r="BE3" s="154"/>
-      <c r="BF3" s="154"/>
-      <c r="BG3" s="154"/>
-      <c r="BH3" s="154"/>
-      <c r="BI3" s="154"/>
-      <c r="BJ3" s="154"/>
-      <c r="BK3" s="154"/>
-      <c r="BL3" s="154"/>
-      <c r="BM3" s="154"/>
-      <c r="BN3" s="154"/>
-    </row>
-    <row r="4" spans="1:66" s="155" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="169"/>
-      <c r="B4" s="170" t="s">
+    <row r="1" spans="1:66" s="159" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="155" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="173" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="157"/>
+      <c r="AG1" s="157"/>
+      <c r="AH1" s="157"/>
+      <c r="AI1" s="157"/>
+      <c r="AJ1" s="157"/>
+      <c r="AK1" s="157"/>
+      <c r="AL1" s="157"/>
+      <c r="AM1" s="157"/>
+      <c r="AN1" s="157"/>
+      <c r="AO1" s="157"/>
+      <c r="AP1" s="157"/>
+      <c r="AQ1" s="157"/>
+      <c r="AR1" s="157"/>
+      <c r="AS1" s="157"/>
+      <c r="AT1" s="157"/>
+      <c r="AU1" s="157"/>
+      <c r="AV1" s="157"/>
+      <c r="AW1" s="157"/>
+      <c r="AX1" s="157"/>
+      <c r="AY1" s="157"/>
+      <c r="AZ1" s="157"/>
+      <c r="BA1" s="157"/>
+      <c r="BB1" s="157"/>
+      <c r="BC1" s="157"/>
+      <c r="BD1" s="157"/>
+      <c r="BE1" s="157"/>
+      <c r="BF1" s="157"/>
+      <c r="BG1" s="157"/>
+      <c r="BH1" s="157"/>
+      <c r="BI1" s="157"/>
+      <c r="BJ1" s="157"/>
+      <c r="BK1" s="157"/>
+      <c r="BL1" s="157"/>
+      <c r="BM1" s="157"/>
+      <c r="BN1" s="157"/>
+    </row>
+    <row r="2" spans="1:66" s="159" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="160" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
+      <c r="AF2" s="157"/>
+      <c r="AG2" s="157"/>
+      <c r="AH2" s="157"/>
+      <c r="AI2" s="157"/>
+      <c r="AJ2" s="157"/>
+      <c r="AK2" s="157"/>
+      <c r="AL2" s="157"/>
+      <c r="AM2" s="157"/>
+      <c r="AN2" s="157"/>
+      <c r="AO2" s="157"/>
+      <c r="AP2" s="157"/>
+      <c r="AQ2" s="157"/>
+      <c r="AR2" s="157"/>
+      <c r="AS2" s="157"/>
+      <c r="AT2" s="157"/>
+      <c r="AU2" s="157"/>
+      <c r="AV2" s="157"/>
+      <c r="AW2" s="157"/>
+      <c r="AX2" s="157"/>
+      <c r="AY2" s="157"/>
+      <c r="AZ2" s="157"/>
+      <c r="BA2" s="157"/>
+      <c r="BB2" s="157"/>
+      <c r="BC2" s="157"/>
+      <c r="BD2" s="157"/>
+      <c r="BE2" s="157"/>
+      <c r="BF2" s="157"/>
+      <c r="BG2" s="157"/>
+      <c r="BH2" s="157"/>
+      <c r="BI2" s="157"/>
+      <c r="BJ2" s="157"/>
+      <c r="BK2" s="157"/>
+      <c r="BL2" s="157"/>
+      <c r="BM2" s="157"/>
+      <c r="BN2" s="157"/>
+    </row>
+    <row r="3" spans="1:66" s="154" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="164"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="166"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="166"/>
+      <c r="AA3" s="166"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="153"/>
+      <c r="AD3" s="153"/>
+      <c r="AE3" s="153"/>
+      <c r="AF3" s="153"/>
+      <c r="AG3" s="153"/>
+      <c r="AH3" s="153"/>
+      <c r="AI3" s="153"/>
+      <c r="AJ3" s="153"/>
+      <c r="AK3" s="153"/>
+      <c r="AL3" s="153"/>
+      <c r="AM3" s="153"/>
+      <c r="AN3" s="153"/>
+      <c r="AO3" s="153"/>
+      <c r="AP3" s="153"/>
+      <c r="AQ3" s="153"/>
+      <c r="AR3" s="153"/>
+      <c r="AS3" s="153"/>
+      <c r="AT3" s="153"/>
+      <c r="AU3" s="153"/>
+      <c r="AV3" s="153"/>
+      <c r="AW3" s="153"/>
+      <c r="AX3" s="153"/>
+      <c r="AY3" s="153"/>
+      <c r="AZ3" s="153"/>
+      <c r="BA3" s="153"/>
+      <c r="BB3" s="153"/>
+      <c r="BC3" s="153"/>
+      <c r="BD3" s="153"/>
+      <c r="BE3" s="153"/>
+      <c r="BF3" s="153"/>
+      <c r="BG3" s="153"/>
+      <c r="BH3" s="153"/>
+      <c r="BI3" s="153"/>
+      <c r="BJ3" s="153"/>
+      <c r="BK3" s="153"/>
+      <c r="BL3" s="153"/>
+      <c r="BM3" s="153"/>
+      <c r="BN3" s="153"/>
+    </row>
+    <row r="4" spans="1:66" s="154" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="167"/>
+      <c r="B4" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="181">
+      <c r="C4" s="178">
         <v>43190</v>
       </c>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="170" t="s">
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="173">
-        <v>2</v>
-      </c>
-      <c r="J4" s="174"/>
+      <c r="H4" s="170">
+        <v>1</v>
+      </c>
+      <c r="J4" s="171"/>
       <c r="K4" s="175" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 2</v>
+        <v>Week 1</v>
       </c>
       <c r="L4" s="176"/>
       <c r="M4" s="176"/>
@@ -4174,7 +4186,7 @@
       <c r="Q4" s="177"/>
       <c r="R4" s="175" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 3</v>
+        <v>Week 2</v>
       </c>
       <c r="S4" s="176"/>
       <c r="T4" s="176"/>
@@ -4184,7 +4196,7 @@
       <c r="X4" s="177"/>
       <c r="Y4" s="175" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 4</v>
+        <v>Week 3</v>
       </c>
       <c r="Z4" s="176"/>
       <c r="AA4" s="176"/>
@@ -4194,7 +4206,7 @@
       <c r="AE4" s="177"/>
       <c r="AF4" s="175" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 5</v>
+        <v>Week 4</v>
       </c>
       <c r="AG4" s="176"/>
       <c r="AH4" s="176"/>
@@ -4204,7 +4216,7 @@
       <c r="AL4" s="177"/>
       <c r="AM4" s="175" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 6</v>
+        <v>Week 5</v>
       </c>
       <c r="AN4" s="176"/>
       <c r="AO4" s="176"/>
@@ -4214,7 +4226,7 @@
       <c r="AS4" s="177"/>
       <c r="AT4" s="175" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 7</v>
+        <v>Week 6</v>
       </c>
       <c r="AU4" s="176"/>
       <c r="AV4" s="176"/>
@@ -4224,7 +4236,7 @@
       <c r="AZ4" s="177"/>
       <c r="BA4" s="175" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 8</v>
+        <v>Week 7</v>
       </c>
       <c r="BB4" s="176"/>
       <c r="BC4" s="176"/>
@@ -4234,7 +4246,7 @@
       <c r="BG4" s="177"/>
       <c r="BH4" s="175" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 9</v>
+        <v>Week 8</v>
       </c>
       <c r="BI4" s="176"/>
       <c r="BJ4" s="176"/>
@@ -4243,588 +4255,588 @@
       <c r="BM4" s="176"/>
       <c r="BN4" s="177"/>
     </row>
-    <row r="5" spans="1:66" s="155" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="169"/>
-      <c r="B5" s="170" t="s">
+    <row r="5" spans="1:66" s="154" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="167"/>
+      <c r="B5" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="171" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="178">
+      <c r="C5" s="174" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="179">
         <f>K6</f>
+        <v>43185</v>
+      </c>
+      <c r="L5" s="180"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="180"/>
+      <c r="P5" s="180"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="179">
+        <f>R6</f>
         <v>43192</v>
       </c>
-      <c r="L5" s="179"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="178">
-        <f>R6</f>
+      <c r="S5" s="180"/>
+      <c r="T5" s="180"/>
+      <c r="U5" s="180"/>
+      <c r="V5" s="180"/>
+      <c r="W5" s="180"/>
+      <c r="X5" s="181"/>
+      <c r="Y5" s="179">
+        <f>Y6</f>
         <v>43199</v>
       </c>
-      <c r="S5" s="179"/>
-      <c r="T5" s="179"/>
-      <c r="U5" s="179"/>
-      <c r="V5" s="179"/>
-      <c r="W5" s="179"/>
-      <c r="X5" s="180"/>
-      <c r="Y5" s="178">
-        <f>Y6</f>
+      <c r="Z5" s="180"/>
+      <c r="AA5" s="180"/>
+      <c r="AB5" s="180"/>
+      <c r="AC5" s="180"/>
+      <c r="AD5" s="180"/>
+      <c r="AE5" s="181"/>
+      <c r="AF5" s="179">
+        <f>AF6</f>
         <v>43206</v>
       </c>
-      <c r="Z5" s="179"/>
-      <c r="AA5" s="179"/>
-      <c r="AB5" s="179"/>
-      <c r="AC5" s="179"/>
-      <c r="AD5" s="179"/>
-      <c r="AE5" s="180"/>
-      <c r="AF5" s="178">
-        <f>AF6</f>
+      <c r="AG5" s="180"/>
+      <c r="AH5" s="180"/>
+      <c r="AI5" s="180"/>
+      <c r="AJ5" s="180"/>
+      <c r="AK5" s="180"/>
+      <c r="AL5" s="181"/>
+      <c r="AM5" s="179">
+        <f>AM6</f>
         <v>43213</v>
       </c>
-      <c r="AG5" s="179"/>
-      <c r="AH5" s="179"/>
-      <c r="AI5" s="179"/>
-      <c r="AJ5" s="179"/>
-      <c r="AK5" s="179"/>
-      <c r="AL5" s="180"/>
-      <c r="AM5" s="178">
-        <f>AM6</f>
+      <c r="AN5" s="180"/>
+      <c r="AO5" s="180"/>
+      <c r="AP5" s="180"/>
+      <c r="AQ5" s="180"/>
+      <c r="AR5" s="180"/>
+      <c r="AS5" s="181"/>
+      <c r="AT5" s="179">
+        <f>AT6</f>
         <v>43220</v>
       </c>
-      <c r="AN5" s="179"/>
-      <c r="AO5" s="179"/>
-      <c r="AP5" s="179"/>
-      <c r="AQ5" s="179"/>
-      <c r="AR5" s="179"/>
-      <c r="AS5" s="180"/>
-      <c r="AT5" s="178">
-        <f>AT6</f>
+      <c r="AU5" s="180"/>
+      <c r="AV5" s="180"/>
+      <c r="AW5" s="180"/>
+      <c r="AX5" s="180"/>
+      <c r="AY5" s="180"/>
+      <c r="AZ5" s="181"/>
+      <c r="BA5" s="179">
+        <f>BA6</f>
         <v>43227</v>
       </c>
-      <c r="AU5" s="179"/>
-      <c r="AV5" s="179"/>
-      <c r="AW5" s="179"/>
-      <c r="AX5" s="179"/>
-      <c r="AY5" s="179"/>
-      <c r="AZ5" s="180"/>
-      <c r="BA5" s="178">
-        <f>BA6</f>
+      <c r="BB5" s="180"/>
+      <c r="BC5" s="180"/>
+      <c r="BD5" s="180"/>
+      <c r="BE5" s="180"/>
+      <c r="BF5" s="180"/>
+      <c r="BG5" s="181"/>
+      <c r="BH5" s="179">
+        <f>BH6</f>
         <v>43234</v>
       </c>
-      <c r="BB5" s="179"/>
-      <c r="BC5" s="179"/>
-      <c r="BD5" s="179"/>
-      <c r="BE5" s="179"/>
-      <c r="BF5" s="179"/>
-      <c r="BG5" s="180"/>
-      <c r="BH5" s="178">
-        <f>BH6</f>
-        <v>43241</v>
-      </c>
-      <c r="BI5" s="179"/>
-      <c r="BJ5" s="179"/>
-      <c r="BK5" s="179"/>
-      <c r="BL5" s="179"/>
-      <c r="BM5" s="179"/>
-      <c r="BN5" s="180"/>
-    </row>
-    <row r="6" spans="1:66" s="148" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="149"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="151">
+      <c r="BI5" s="180"/>
+      <c r="BJ5" s="180"/>
+      <c r="BK5" s="180"/>
+      <c r="BL5" s="180"/>
+      <c r="BM5" s="180"/>
+      <c r="BN5" s="181"/>
+    </row>
+    <row r="6" spans="1:66" s="147" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="148"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="150">
         <f>C4-WEEKDAY(C4,1)+2+7*(H4-1)</f>
+        <v>43185</v>
+      </c>
+      <c r="L6" s="151">
+        <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
+        <v>43186</v>
+      </c>
+      <c r="M6" s="151">
+        <f t="shared" si="0"/>
+        <v>43187</v>
+      </c>
+      <c r="N6" s="151">
+        <f t="shared" si="0"/>
+        <v>43188</v>
+      </c>
+      <c r="O6" s="151">
+        <f t="shared" si="0"/>
+        <v>43189</v>
+      </c>
+      <c r="P6" s="151">
+        <f t="shared" si="0"/>
+        <v>43190</v>
+      </c>
+      <c r="Q6" s="152">
+        <f t="shared" si="0"/>
+        <v>43191</v>
+      </c>
+      <c r="R6" s="150">
+        <f t="shared" si="0"/>
         <v>43192</v>
       </c>
-      <c r="L6" s="152">
-        <f t="shared" ref="L6:AQ6" si="0">K6+1</f>
+      <c r="S6" s="151">
+        <f t="shared" si="0"/>
         <v>43193</v>
       </c>
-      <c r="M6" s="152">
+      <c r="T6" s="151">
         <f t="shared" si="0"/>
         <v>43194</v>
       </c>
-      <c r="N6" s="152">
+      <c r="U6" s="151">
         <f t="shared" si="0"/>
         <v>43195</v>
       </c>
-      <c r="O6" s="152">
+      <c r="V6" s="151">
         <f t="shared" si="0"/>
         <v>43196</v>
       </c>
-      <c r="P6" s="152">
+      <c r="W6" s="151">
         <f t="shared" si="0"/>
         <v>43197</v>
       </c>
-      <c r="Q6" s="153">
+      <c r="X6" s="152">
         <f t="shared" si="0"/>
         <v>43198</v>
       </c>
-      <c r="R6" s="151">
+      <c r="Y6" s="150">
         <f t="shared" si="0"/>
         <v>43199</v>
       </c>
-      <c r="S6" s="152">
+      <c r="Z6" s="151">
         <f t="shared" si="0"/>
         <v>43200</v>
       </c>
-      <c r="T6" s="152">
+      <c r="AA6" s="151">
         <f t="shared" si="0"/>
         <v>43201</v>
       </c>
-      <c r="U6" s="152">
+      <c r="AB6" s="151">
         <f t="shared" si="0"/>
         <v>43202</v>
       </c>
-      <c r="V6" s="152">
+      <c r="AC6" s="151">
         <f t="shared" si="0"/>
         <v>43203</v>
       </c>
-      <c r="W6" s="152">
+      <c r="AD6" s="151">
         <f t="shared" si="0"/>
         <v>43204</v>
       </c>
-      <c r="X6" s="153">
+      <c r="AE6" s="152">
         <f t="shared" si="0"/>
         <v>43205</v>
       </c>
-      <c r="Y6" s="151">
+      <c r="AF6" s="150">
         <f t="shared" si="0"/>
         <v>43206</v>
       </c>
-      <c r="Z6" s="152">
+      <c r="AG6" s="151">
         <f t="shared" si="0"/>
         <v>43207</v>
       </c>
-      <c r="AA6" s="152">
+      <c r="AH6" s="151">
         <f t="shared" si="0"/>
         <v>43208</v>
       </c>
-      <c r="AB6" s="152">
+      <c r="AI6" s="151">
         <f t="shared" si="0"/>
         <v>43209</v>
       </c>
-      <c r="AC6" s="152">
+      <c r="AJ6" s="151">
         <f t="shared" si="0"/>
         <v>43210</v>
       </c>
-      <c r="AD6" s="152">
+      <c r="AK6" s="151">
         <f t="shared" si="0"/>
         <v>43211</v>
       </c>
-      <c r="AE6" s="153">
+      <c r="AL6" s="152">
         <f t="shared" si="0"/>
         <v>43212</v>
       </c>
-      <c r="AF6" s="151">
+      <c r="AM6" s="150">
         <f t="shared" si="0"/>
         <v>43213</v>
       </c>
-      <c r="AG6" s="152">
+      <c r="AN6" s="151">
         <f t="shared" si="0"/>
         <v>43214</v>
       </c>
-      <c r="AH6" s="152">
+      <c r="AO6" s="151">
         <f t="shared" si="0"/>
         <v>43215</v>
       </c>
-      <c r="AI6" s="152">
+      <c r="AP6" s="151">
         <f t="shared" si="0"/>
         <v>43216</v>
       </c>
-      <c r="AJ6" s="152">
+      <c r="AQ6" s="151">
         <f t="shared" si="0"/>
         <v>43217</v>
       </c>
-      <c r="AK6" s="152">
-        <f t="shared" si="0"/>
+      <c r="AR6" s="151">
+        <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
         <v>43218</v>
       </c>
-      <c r="AL6" s="153">
-        <f t="shared" si="0"/>
+      <c r="AS6" s="152">
+        <f t="shared" si="1"/>
         <v>43219</v>
       </c>
-      <c r="AM6" s="151">
-        <f t="shared" si="0"/>
+      <c r="AT6" s="150">
+        <f t="shared" si="1"/>
         <v>43220</v>
       </c>
-      <c r="AN6" s="152">
-        <f t="shared" si="0"/>
+      <c r="AU6" s="151">
+        <f t="shared" si="1"/>
         <v>43221</v>
       </c>
-      <c r="AO6" s="152">
-        <f t="shared" si="0"/>
+      <c r="AV6" s="151">
+        <f t="shared" si="1"/>
         <v>43222</v>
       </c>
-      <c r="AP6" s="152">
-        <f t="shared" si="0"/>
+      <c r="AW6" s="151">
+        <f t="shared" si="1"/>
         <v>43223</v>
       </c>
-      <c r="AQ6" s="152">
-        <f t="shared" si="0"/>
+      <c r="AX6" s="151">
+        <f t="shared" si="1"/>
         <v>43224</v>
       </c>
-      <c r="AR6" s="152">
-        <f t="shared" ref="AR6:BN6" si="1">AQ6+1</f>
+      <c r="AY6" s="151">
+        <f t="shared" si="1"/>
         <v>43225</v>
       </c>
-      <c r="AS6" s="153">
+      <c r="AZ6" s="152">
         <f t="shared" si="1"/>
         <v>43226</v>
       </c>
-      <c r="AT6" s="151">
+      <c r="BA6" s="150">
         <f t="shared" si="1"/>
         <v>43227</v>
       </c>
-      <c r="AU6" s="152">
+      <c r="BB6" s="151">
         <f t="shared" si="1"/>
         <v>43228</v>
       </c>
-      <c r="AV6" s="152">
+      <c r="BC6" s="151">
         <f t="shared" si="1"/>
         <v>43229</v>
       </c>
-      <c r="AW6" s="152">
+      <c r="BD6" s="151">
         <f t="shared" si="1"/>
         <v>43230</v>
       </c>
-      <c r="AX6" s="152">
+      <c r="BE6" s="151">
         <f t="shared" si="1"/>
         <v>43231</v>
       </c>
-      <c r="AY6" s="152">
+      <c r="BF6" s="151">
         <f t="shared" si="1"/>
         <v>43232</v>
       </c>
-      <c r="AZ6" s="153">
+      <c r="BG6" s="152">
         <f t="shared" si="1"/>
         <v>43233</v>
       </c>
-      <c r="BA6" s="151">
+      <c r="BH6" s="150">
         <f t="shared" si="1"/>
         <v>43234</v>
       </c>
-      <c r="BB6" s="152">
+      <c r="BI6" s="151">
         <f t="shared" si="1"/>
         <v>43235</v>
       </c>
-      <c r="BC6" s="152">
+      <c r="BJ6" s="151">
         <f t="shared" si="1"/>
         <v>43236</v>
       </c>
-      <c r="BD6" s="152">
+      <c r="BK6" s="151">
         <f t="shared" si="1"/>
         <v>43237</v>
       </c>
-      <c r="BE6" s="152">
+      <c r="BL6" s="151">
         <f t="shared" si="1"/>
         <v>43238</v>
       </c>
-      <c r="BF6" s="152">
+      <c r="BM6" s="151">
         <f t="shared" si="1"/>
         <v>43239</v>
       </c>
-      <c r="BG6" s="153">
+      <c r="BN6" s="152">
         <f t="shared" si="1"/>
         <v>43240</v>
       </c>
-      <c r="BH6" s="151">
-        <f t="shared" si="1"/>
-        <v>43241</v>
-      </c>
-      <c r="BI6" s="152">
-        <f t="shared" si="1"/>
-        <v>43242</v>
-      </c>
-      <c r="BJ6" s="152">
-        <f t="shared" si="1"/>
-        <v>43243</v>
-      </c>
-      <c r="BK6" s="152">
-        <f t="shared" si="1"/>
-        <v>43244</v>
-      </c>
-      <c r="BL6" s="152">
-        <f t="shared" si="1"/>
-        <v>43245</v>
-      </c>
-      <c r="BM6" s="152">
-        <f t="shared" si="1"/>
-        <v>43246</v>
-      </c>
-      <c r="BN6" s="153">
-        <f t="shared" si="1"/>
-        <v>43247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:66" s="146" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="138" t="s">
+    </row>
+    <row r="7" spans="1:66" s="145" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="141" t="s">
+      <c r="D7" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="142" t="s">
+      <c r="E7" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="142" t="s">
+      <c r="F7" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="140" t="s">
+      <c r="G7" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="140" t="s">
+      <c r="H7" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="140" t="s">
+      <c r="I7" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="140"/>
-      <c r="K7" s="143" t="str">
+      <c r="J7" s="139"/>
+      <c r="K7" s="142" t="str">
         <f t="shared" ref="K7:AP7" si="2">CHOOSE(WEEKDAY(K6,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
       </c>
-      <c r="L7" s="144" t="str">
+      <c r="L7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="M7" s="144" t="str">
+      <c r="M7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="N7" s="144" t="str">
+      <c r="N7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="O7" s="144" t="str">
+      <c r="O7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="P7" s="144" t="str">
+      <c r="P7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="Q7" s="145" t="str">
+      <c r="Q7" s="144" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="R7" s="143" t="str">
+      <c r="R7" s="142" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="S7" s="144" t="str">
+      <c r="S7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="T7" s="144" t="str">
+      <c r="T7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="U7" s="144" t="str">
+      <c r="U7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="V7" s="144" t="str">
+      <c r="V7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="W7" s="144" t="str">
+      <c r="W7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="X7" s="145" t="str">
+      <c r="X7" s="144" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="Y7" s="143" t="str">
+      <c r="Y7" s="142" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="Z7" s="144" t="str">
+      <c r="Z7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AA7" s="144" t="str">
+      <c r="AA7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="AB7" s="144" t="str">
+      <c r="AB7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AC7" s="144" t="str">
+      <c r="AC7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="AD7" s="144" t="str">
+      <c r="AD7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AE7" s="145" t="str">
+      <c r="AE7" s="144" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AF7" s="143" t="str">
+      <c r="AF7" s="142" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="AG7" s="144" t="str">
+      <c r="AG7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AH7" s="144" t="str">
+      <c r="AH7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="AI7" s="144" t="str">
+      <c r="AI7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AJ7" s="144" t="str">
+      <c r="AJ7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="AK7" s="144" t="str">
+      <c r="AK7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AL7" s="145" t="str">
+      <c r="AL7" s="144" t="str">
         <f t="shared" si="2"/>
         <v>S</v>
       </c>
-      <c r="AM7" s="143" t="str">
+      <c r="AM7" s="142" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="AN7" s="144" t="str">
+      <c r="AN7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AO7" s="144" t="str">
+      <c r="AO7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="AP7" s="144" t="str">
+      <c r="AP7" s="143" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AQ7" s="144" t="str">
+      <c r="AQ7" s="143" t="str">
         <f t="shared" ref="AQ7:BN7" si="3">CHOOSE(WEEKDAY(AQ6,1),"S","M","T","W","T","F","S")</f>
         <v>F</v>
       </c>
-      <c r="AR7" s="144" t="str">
+      <c r="AR7" s="143" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AS7" s="145" t="str">
+      <c r="AS7" s="144" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AT7" s="143" t="str">
+      <c r="AT7" s="142" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="AU7" s="144" t="str">
+      <c r="AU7" s="143" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AV7" s="144" t="str">
+      <c r="AV7" s="143" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="AW7" s="144" t="str">
+      <c r="AW7" s="143" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="AX7" s="144" t="str">
+      <c r="AX7" s="143" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="AY7" s="144" t="str">
+      <c r="AY7" s="143" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="AZ7" s="145" t="str">
+      <c r="AZ7" s="144" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="BA7" s="143" t="str">
+      <c r="BA7" s="142" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="BB7" s="144" t="str">
+      <c r="BB7" s="143" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="BC7" s="144" t="str">
+      <c r="BC7" s="143" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="BD7" s="144" t="str">
+      <c r="BD7" s="143" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="BE7" s="144" t="str">
+      <c r="BE7" s="143" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="BF7" s="144" t="str">
+      <c r="BF7" s="143" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="BG7" s="145" t="str">
+      <c r="BG7" s="144" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="BH7" s="143" t="str">
+      <c r="BH7" s="142" t="str">
         <f t="shared" si="3"/>
         <v>M</v>
       </c>
-      <c r="BI7" s="144" t="str">
+      <c r="BI7" s="143" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="BJ7" s="144" t="str">
+      <c r="BJ7" s="143" t="str">
         <f t="shared" si="3"/>
         <v>W</v>
       </c>
-      <c r="BK7" s="144" t="str">
+      <c r="BK7" s="143" t="str">
         <f t="shared" si="3"/>
         <v>T</v>
       </c>
-      <c r="BL7" s="144" t="str">
+      <c r="BL7" s="143" t="str">
         <f t="shared" si="3"/>
         <v>F</v>
       </c>
-      <c r="BM7" s="144" t="str">
+      <c r="BM7" s="143" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
-      <c r="BN7" s="145" t="str">
+      <c r="BN7" s="144" t="str">
         <f t="shared" si="3"/>
         <v>S</v>
       </c>
@@ -4914,7 +4926,7 @@
         <v>1.1</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C9" s="50" t="s">
         <v>142</v>
@@ -5003,8 +5015,8 @@
       <c r="B10" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="182" t="s">
-        <v>155</v>
+      <c r="C10" s="172" t="s">
+        <v>152</v>
       </c>
       <c r="D10" s="98"/>
       <c r="E10" s="86">
@@ -5349,10 +5361,10 @@
         <v>1.6</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D14" s="98"/>
       <c r="E14" s="86">
@@ -5436,13 +5448,13 @@
       </c>
       <c r="B15" s="97"/>
       <c r="C15" s="97"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="137"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="136"/>
       <c r="K15" s="93"/>
       <c r="L15" s="93"/>
       <c r="M15" s="93"/>
@@ -5673,7 +5685,7 @@
       <c r="B18" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="C18" s="182" t="s">
+      <c r="C18" s="172" t="s">
         <v>147</v>
       </c>
       <c r="D18" s="98"/>
@@ -5760,8 +5772,8 @@
       <c r="B19" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="182" t="s">
-        <v>159</v>
+      <c r="C19" s="172" t="s">
+        <v>156</v>
       </c>
       <c r="D19" s="98"/>
       <c r="E19" s="86">
@@ -5847,8 +5859,8 @@
       <c r="B20" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="182" t="s">
-        <v>150</v>
+      <c r="C20" s="172" t="s">
+        <v>157</v>
       </c>
       <c r="D20" s="98"/>
       <c r="E20" s="86">
@@ -5926,16 +5938,16 @@
       <c r="BM20" s="93"/>
       <c r="BN20" s="93"/>
     </row>
-    <row r="21" spans="1:66" s="50" customFormat="1" ht="108" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:66" s="50" customFormat="1" ht="180" x14ac:dyDescent="0.2">
       <c r="A21" s="49" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.5</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="182" t="s">
-        <v>149</v>
+        <v>158</v>
+      </c>
+      <c r="C21" s="172" t="s">
+        <v>159</v>
       </c>
       <c r="D21" s="98"/>
       <c r="E21" s="86">
@@ -6013,33 +6025,33 @@
       <c r="BM21" s="93"/>
       <c r="BN21" s="93"/>
     </row>
-    <row r="22" spans="1:66" s="50" customFormat="1" ht="108" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:66" s="50" customFormat="1" ht="180" x14ac:dyDescent="0.2">
       <c r="A22" s="49">
         <v>2.6</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="182" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="131"/>
+        <v>158</v>
+      </c>
+      <c r="C22" s="172" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="130"/>
       <c r="E22" s="86">
         <v>43209</v>
       </c>
-      <c r="F22" s="133">
+      <c r="F22" s="132">
         <f t="shared" si="6"/>
         <v>43211</v>
       </c>
-      <c r="G22" s="134">
+      <c r="G22" s="133">
         <v>3</v>
       </c>
-      <c r="H22" s="135"/>
-      <c r="I22" s="136">
+      <c r="H22" s="134"/>
+      <c r="I22" s="135">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J22" s="137"/>
+      <c r="J22" s="136"/>
       <c r="K22" s="93"/>
       <c r="L22" s="93"/>
       <c r="M22" s="93"/>
@@ -7762,15 +7774,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -7781,6 +7784,15 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H42">
@@ -8142,10 +8154,10 @@
     </row>
     <row r="12" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="130"/>
+      <c r="B13" s="182"/>
     </row>
     <row r="14" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:3" s="102" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -8207,10 +8219,10 @@
       <c r="B23" s="8"/>
     </row>
     <row r="24" spans="1:3" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="130" t="s">
+      <c r="A24" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="130"/>
+      <c r="B24" s="182"/>
     </row>
     <row r="25" spans="1:3" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A25" s="112"/>
@@ -8283,10 +8295,10 @@
       <c r="B37" s="8"/>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="130" t="s">
+      <c r="A38" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="130"/>
+      <c r="B38" s="182"/>
     </row>
     <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B39" s="109" t="s">
@@ -8323,10 +8335,10 @@
       <c r="B48" s="9"/>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="130" t="s">
+      <c r="A49" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="130"/>
+      <c r="B49" s="182"/>
     </row>
     <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="109" t="s">
@@ -8424,10 +8436,10 @@
       <c r="B64" s="10"/>
     </row>
     <row r="65" spans="1:2" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="130" t="s">
+      <c r="A65" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="130"/>
+      <c r="B65" s="182"/>
     </row>
     <row r="66" spans="1:2" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B66" s="109" t="s">
@@ -8438,10 +8450,10 @@
       <c r="B67" s="11"/>
     </row>
     <row r="68" spans="1:2" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="130" t="s">
+      <c r="A68" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="130"/>
+      <c r="B68" s="182"/>
     </row>
     <row r="69" spans="1:2" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="124" t="s">
@@ -8725,7 +8737,7 @@
       <c r="B15" s="15"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:4" ht="45.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="30.75" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="15" t="s">
         <v>60</v>
